--- a/Module6/[A1020I1]_DailyReport_ThanhNHM.xlsx
+++ b/Module6/[A1020I1]_DailyReport_ThanhNHM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenHoangMinhThanh_A1020I1\A1020I1-NguyenHoangMinhThanh\Module6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThanhNHM-A1020I1\A1020I1-NguyenHoangMinhThanh\Module6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80450C54-3360-40AC-902C-69AF7E691CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97614BEE-CA78-4744-BAC2-E184CC50802F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="169">
   <si>
     <t>No</t>
   </si>
@@ -680,9 +680,6 @@
     <t>3. Next day tasks</t>
   </si>
   <si>
-    <t>trung.doan@codegym.vn</t>
-  </si>
-  <si>
     <r>
       <t>tam.tran@codegym.vn</t>
     </r>
@@ -766,26 +763,92 @@
     <t>Final Test Sprint 1</t>
   </si>
   <si>
-    <t>[C1020I1]_Daily Report_ThanhNHM_dd/mm/2021</t>
-  </si>
-  <si>
-    <t>[Coding Spring] 6.6.2 Thêm dịch vụ</t>
-  </si>
-  <si>
-    <t>[Coding Spring] 6.6.3 Sửa dịch vụ</t>
-  </si>
-  <si>
-    <t>[Study JUnit 5] 6.6.2 Thêm dịch vụ</t>
-  </si>
-  <si>
-    <t>[Study JUnit 5] 6.6.3 Sửa dịch vụ</t>
+    <t>[A1020I1]_Daily Report_ThanhNHM_dd/mm/2021</t>
+  </si>
+  <si>
+    <t>PROJECT PLAN</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Task Trello</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Prototype (HTML, CSS)</t>
+  </si>
+  <si>
+    <t>ERD, EER</t>
+  </si>
+  <si>
+    <t>Detail Design (Excel)</t>
+  </si>
+  <si>
+    <t>Blackbox TC (Excel)</t>
+  </si>
+  <si>
+    <t>Source code all task</t>
+  </si>
+  <si>
+    <t>Source code test (by JUnit 5)</t>
+  </si>
+  <si>
+    <t>8, 9</t>
+  </si>
+  <si>
+    <t>Project Sonar</t>
+  </si>
+  <si>
+    <t>Fix all errors</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Fix all bugs</t>
+  </si>
+  <si>
+    <t>Fix all comments</t>
+  </si>
+  <si>
+    <t>[Coding Angular + all] 6.2.5. Giao diện nhắn tin</t>
+  </si>
+  <si>
+    <t>[Create JUnit 5] 6.2.5. Giao diện nhắn tin</t>
+  </si>
+  <si>
+    <t>15/11/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	chien.tran@codegym.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,10 +987,19 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF351C75"/>
-      <name val="Arial"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -956,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1026,7 +1098,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1035,10 +1107,32 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
-      </left>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -1053,13 +1147,13 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,7 +1165,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,30 +1393,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,6 +1425,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1864,8 +1974,8 @@
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1882,14 +1992,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="93"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -1901,14 +2011,14 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95" t="s">
+      <c r="E16" s="85"/>
+      <c r="F16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="95"/>
+      <c r="G16" s="86"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
@@ -2156,8 +2266,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2175,14 +2285,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
@@ -2194,14 +2304,14 @@
       <c r="C18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95" t="s">
+      <c r="E18" s="85"/>
+      <c r="F18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="95"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -2445,8 +2555,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2464,14 +2574,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
@@ -2483,14 +2593,14 @@
       <c r="C18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95" t="s">
+      <c r="E18" s="85"/>
+      <c r="F18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="95"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -2739,8 +2849,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2758,14 +2868,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
@@ -2777,14 +2887,14 @@
       <c r="C18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95" t="s">
+      <c r="E18" s="85"/>
+      <c r="F18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="95"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -2987,8 +3097,8 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -3006,14 +3116,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="93"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -3025,14 +3135,14 @@
       <c r="C16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95" t="s">
+      <c r="E16" s="85"/>
+      <c r="F16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="95"/>
+      <c r="G16" s="86"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
@@ -3235,8 +3345,8 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -3254,14 +3364,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="93"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -3273,14 +3383,14 @@
       <c r="C16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95" t="s">
+      <c r="E16" s="85"/>
+      <c r="F16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="95"/>
+      <c r="G16" s="86"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
@@ -3303,7 +3413,7 @@
   <dimension ref="B1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B3" sqref="B3:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,16 +3431,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="82"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>121</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3372,14 +3482,14 @@
       <c r="D9" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="97" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="98"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="71" t="s">
         <v>14</v>
       </c>
@@ -3393,11 +3503,11 @@
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="73"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="91"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="82"/>
       <c r="J10" s="74"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3406,10 +3516,10 @@
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="100"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="75"/>
       <c r="J11" s="74"/>
     </row>
@@ -3419,10 +3529,10 @@
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="100"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="91"/>
       <c r="I12" s="75"/>
       <c r="J12" s="74"/>
     </row>
@@ -3432,10 +3542,10 @@
       </c>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="100"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="75"/>
       <c r="J13" s="76"/>
     </row>
@@ -3477,10 +3587,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D17" s="74">
-        <v>44326</v>
+        <v>44511</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>116</v>
@@ -3494,18 +3604,10 @@
       <c r="B18" s="59">
         <v>2</v>
       </c>
-      <c r="C18" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="74">
-        <v>44326</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>114</v>
-      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="74"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3556,15 +3658,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="59">
         <v>1</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="74">
-        <v>44387</v>
+        <v>165</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>167</v>
       </c>
       <c r="E24" s="74"/>
     </row>
@@ -3572,12 +3674,8 @@
       <c r="B25" s="59">
         <v>2</v>
       </c>
-      <c r="C25" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="74">
-        <v>44387</v>
-      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="74"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3596,193 +3694,483 @@
       <c r="D27" s="76"/>
       <c r="E27" s="76"/>
     </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="105"/>
+    </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84" t="s">
+      <c r="B31" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="95">
+        <v>1</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="98">
+        <v>44461</v>
+      </c>
+      <c r="F32" s="98">
+        <v>44461</v>
+      </c>
+      <c r="G32" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="96"/>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="99">
+        <v>1</v>
+      </c>
+      <c r="C33" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="88">
+      <c r="D33" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="102">
         <v>44461</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="81"/>
-      <c r="C32" s="85" t="s">
+      <c r="F33" s="102">
+        <v>44461</v>
+      </c>
+      <c r="G33" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="100"/>
+    </row>
+    <row r="34" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="99">
+        <v>2</v>
+      </c>
+      <c r="C34" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="89">
-        <v>44461</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="85" t="s">
+      <c r="D34" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="102">
+        <v>44463</v>
+      </c>
+      <c r="F34" s="102">
+        <v>44463</v>
+      </c>
+      <c r="G34" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="100"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="99">
+        <v>3</v>
+      </c>
+      <c r="C35" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="89">
-        <v>44463</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="85" t="s">
+      <c r="D35" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="102">
+        <v>44466</v>
+      </c>
+      <c r="F35" s="102">
+        <v>44466</v>
+      </c>
+      <c r="G35" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="100"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="95">
+        <v>4</v>
+      </c>
+      <c r="C36" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="89">
-        <v>44466</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="86" t="s">
+      <c r="D36" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="98">
+        <v>44468</v>
+      </c>
+      <c r="F36" s="98">
+        <v>44468</v>
+      </c>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+    </row>
+    <row r="37" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="99">
+        <v>4</v>
+      </c>
+      <c r="C37" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D37" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="102">
         <v>44468</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="85" t="s">
+      <c r="F37" s="102">
+        <v>44468</v>
+      </c>
+      <c r="G37" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="100"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="95">
+        <v>5</v>
+      </c>
+      <c r="C38" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="89">
-        <v>44468</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="86" t="s">
+      <c r="D38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="98">
+        <v>44470</v>
+      </c>
+      <c r="F38" s="98">
+        <v>44470</v>
+      </c>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="99">
+        <v>5</v>
+      </c>
+      <c r="C39" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="102">
+        <v>44470</v>
+      </c>
+      <c r="F39" s="102">
+        <v>44470</v>
+      </c>
+      <c r="G39" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="100"/>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="99">
+        <v>6</v>
+      </c>
+      <c r="C40" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="90">
-        <v>44470</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="89">
-        <v>44470</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="85" t="s">
+      <c r="D40" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="102">
+        <v>44473</v>
+      </c>
+      <c r="F40" s="102">
+        <v>44473</v>
+      </c>
+      <c r="G40" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="100"/>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="95">
+        <v>7</v>
+      </c>
+      <c r="C41" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="89">
-        <v>44473</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="86" t="s">
+      <c r="D41" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="98">
+        <v>44475</v>
+      </c>
+      <c r="F41" s="98">
+        <v>44475</v>
+      </c>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+    </row>
+    <row r="42" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="99">
+        <v>7</v>
+      </c>
+      <c r="C42" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D42" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="102">
         <v>44475</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="85" t="s">
+      <c r="F42" s="102">
+        <v>44475</v>
+      </c>
+      <c r="G42" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="100"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="89">
-        <v>44475</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="85" t="s">
+      <c r="D43" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="102">
+        <v>44477</v>
+      </c>
+      <c r="F43" s="102">
+        <v>44480</v>
+      </c>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="99">
+        <v>10</v>
+      </c>
+      <c r="C44" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="89">
-        <v>44480</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="85" t="s">
+      <c r="D44" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="102">
+        <v>44482</v>
+      </c>
+      <c r="F44" s="102">
+        <v>44482</v>
+      </c>
+      <c r="G44" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="99">
+        <v>10</v>
+      </c>
+      <c r="C45" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="89">
+      <c r="D45" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="102">
         <v>44482</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="85" t="s">
+      <c r="F45" s="102">
+        <v>44482</v>
+      </c>
+      <c r="G45" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="100"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="99">
+        <v>11</v>
+      </c>
+      <c r="C46" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="89">
-        <v>44482</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="85" t="s">
+      <c r="D46" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="102">
+        <v>44484</v>
+      </c>
+      <c r="F46" s="102">
+        <v>44484</v>
+      </c>
+      <c r="G46" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="100"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="99">
+        <v>11</v>
+      </c>
+      <c r="C47" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="89">
+      <c r="D47" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="102">
         <v>44484</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="85" t="s">
+      <c r="F47" s="102">
+        <v>44484</v>
+      </c>
+      <c r="G47" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="99">
+        <v>12</v>
+      </c>
+      <c r="C48" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="89">
-        <v>44484</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="85" t="s">
+      <c r="D48" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="102">
+        <v>44487</v>
+      </c>
+      <c r="F48" s="102">
+        <v>44487</v>
+      </c>
+      <c r="G48" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="100"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="99">
+        <v>13</v>
+      </c>
+      <c r="C49" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="89">
-        <v>44487</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="85" t="s">
+      <c r="D49" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="102">
+        <v>44489</v>
+      </c>
+      <c r="F49" s="102">
+        <v>44489</v>
+      </c>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="99">
+        <v>14</v>
+      </c>
+      <c r="C50" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="89">
-        <v>44489</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="85" t="s">
+      <c r="D50" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="102">
+        <v>44490</v>
+      </c>
+      <c r="F50" s="102">
+        <v>44490</v>
+      </c>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="99">
+        <v>15</v>
+      </c>
+      <c r="C51" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="89">
-        <v>44490</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="85" t="s">
+      <c r="D51" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="102">
+        <v>44491</v>
+      </c>
+      <c r="F51" s="102">
+        <v>44491</v>
+      </c>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="99">
+        <v>14</v>
+      </c>
+      <c r="C52" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="89">
+      <c r="D52" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="102">
         <v>44491</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="89">
+      <c r="F52" s="102">
         <v>44491</v>
       </c>
-    </row>
-    <row r="52" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14" xr:uid="{1DDD7E7C-342A-4BC7-859C-E14A4ADBCDD7}">
@@ -3996,8 +4384,8 @@
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -4014,14 +4402,14 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="93"/>
+      <c r="G16" s="84"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
@@ -4033,14 +4421,14 @@
       <c r="C17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95" t="s">
+      <c r="E17" s="85"/>
+      <c r="F17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="95"/>
+      <c r="G17" s="86"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
@@ -4368,8 +4756,8 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
@@ -4387,14 +4775,14 @@
       <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93" t="s">
+      <c r="E21" s="84"/>
+      <c r="F21" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="93"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="1:7" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
@@ -4406,14 +4794,14 @@
       <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95" t="s">
+      <c r="E22" s="85"/>
+      <c r="F22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="95"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
@@ -4686,8 +5074,8 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -4705,14 +5093,14 @@
       <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
@@ -4724,14 +5112,14 @@
       <c r="C19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95" t="s">
+      <c r="E19" s="85"/>
+      <c r="F19" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
@@ -4999,8 +5387,8 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -5018,14 +5406,14 @@
       <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
@@ -5037,14 +5425,14 @@
       <c r="C19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95" t="s">
+      <c r="E19" s="85"/>
+      <c r="F19" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
@@ -5230,8 +5618,8 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -5249,23 +5637,23 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="93"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
@@ -5519,8 +5907,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -5538,23 +5926,23 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="33"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -5782,8 +6170,8 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -5801,23 +6189,23 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="93"/>
+      <c r="G16" s="84"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="33"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
@@ -6047,8 +6435,8 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -6066,14 +6454,14 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="93"/>
+      <c r="G16" s="84"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
@@ -6085,14 +6473,14 @@
       <c r="C17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95" t="s">
+      <c r="E17" s="85"/>
+      <c r="F17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="95"/>
+      <c r="G17" s="86"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
